--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookEvent.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookEvent.xlsx
@@ -57,8 +57,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -72,7 +72,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,13 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -101,23 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -125,44 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -170,24 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,13 +202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,37 +224,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,103 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,37 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,54 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,15 +429,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +450,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -520,15 +520,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,130 +538,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,14 +994,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="35.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="7.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookEvent.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10320"/>
+    <workbookView windowWidth="20160" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Event created with data from excel</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>6</t>
@@ -57,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,45 +80,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,12 +165,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -178,21 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -201,15 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,19 +224,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,163 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,21 +447,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,24 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,6 +486,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,49 +520,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,97 +571,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +994,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
